--- a/arquivos/confecao.xlsx
+++ b/arquivos/confecao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\API-Arte-arena\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47F9F7C-8475-49A4-A465-81497AFA1FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838557B5-6D1A-4FDB-9402-F47631B327DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,9 +396,7 @@
       <right style="medium">
         <color rgb="FFD9D9D9"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
@@ -411,9 +409,7 @@
       <right style="medium">
         <color rgb="FFD9D9D9"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
@@ -426,9 +422,7 @@
       <right style="medium">
         <color rgb="FFD9D9D9"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -441,9 +435,7 @@
       <right style="medium">
         <color rgb="FFD9D9D9"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
@@ -497,9 +489,6 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -518,9 +507,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -533,9 +519,6 @@
     <xf numFmtId="14" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -547,12 +530,328 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF215A6C"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6DBE1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF5A3286"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE6CFF2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -563,6 +862,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{97290FA2-94BE-4169-A1D8-17140F8BF8E2}" name="Table2" displayName="Table2" ref="A1:H48" totalsRowShown="0" tableBorderDxfId="8">
+  <autoFilter ref="A1:H48" xr:uid="{97290FA2-94BE-4169-A1D8-17140F8BF8E2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
+    <sortCondition ref="A1:A48"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{28C174D5-A126-485A-BA37-B3FF6CE8F829}" name="id" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0130D041-5894-47CA-AAE5-2EE71A640430}" name="data" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4049D6AC-EA47-41EF-B91C-E74F8E054162}" name="produto" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{133D2A08-C93B-4438-9F79-CE960B869D33}" name="material" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E94C1505-EDE5-4467-BE66-46ED2798AB6B}" name="medida_linear" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{EA036048-0C10-45BB-B4B0-3F7C280ECCB0}" name="observacoes" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{90A54F5F-93E1-4CF6-B93B-CFFB515DD78F}" name="status" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{24D53B18-4FF5-48CC-BD82-E613F09CBE24}" name="rolo" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -831,314 +1150,310 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A48" sqref="A1:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>12988</v>
+        <v>11501</v>
       </c>
       <c r="B2" s="2">
-        <v>45117</v>
+        <v>45033</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="3">
-        <v>11.32</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="4">
+        <v>180</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>13036</v>
+        <v>11672</v>
       </c>
       <c r="B3" s="2">
-        <v>45120</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>45030</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="9">
-        <v>4.3099999999999996</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
-        <v>4</v>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>12960</v>
+        <v>11939</v>
       </c>
       <c r="B4" s="2">
-        <v>45114</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="7">
-        <v>80</v>
-      </c>
+        <v>45062</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>12180</v>
+        <v>12068</v>
       </c>
       <c r="B5" s="2">
-        <v>45062</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="7">
-        <v>26</v>
-      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>12856</v>
+        <v>12180</v>
       </c>
       <c r="B6" s="2">
-        <v>45112</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
+        <v>45062</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>11672</v>
+        <v>12380</v>
       </c>
       <c r="B7" s="2">
-        <v>45030</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+        <v>45076</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <v>368</v>
+      </c>
+      <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>11501</v>
+        <v>12597</v>
       </c>
       <c r="B8" s="2">
-        <v>45033</v>
+        <v>45093</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>180</v>
-      </c>
-      <c r="F8" s="11"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="7">
-        <v>65</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>11939</v>
+        <v>12653</v>
       </c>
       <c r="B9" s="2">
-        <v>45062</v>
+        <v>45113</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>12380</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45076</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3">
-        <v>368</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12653</v>
+      </c>
+      <c r="B10" s="24">
+        <v>45128</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>12068</v>
+        <v>12684</v>
       </c>
       <c r="B11" s="2">
-        <v>45078</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>45096</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="7"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>12597</v>
+        <v>12711</v>
       </c>
       <c r="B12" s="2">
-        <v>45093</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
+        <v>45119</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3">
+        <v>20.64</v>
+      </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="17" t="s">
-        <v>13</v>
+      <c r="G12" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>12684</v>
+        <v>12718</v>
       </c>
       <c r="B13" s="2">
-        <v>45096</v>
+        <v>45100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="7">
-        <v>67</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>12718</v>
+        <v>12744</v>
       </c>
       <c r="B14" s="2">
-        <v>45100</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>45105</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>12744</v>
+        <v>12856</v>
       </c>
       <c r="B15" s="2">
-        <v>45105</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>14</v>
+        <v>45112</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="17" t="s">
-        <v>13</v>
+      <c r="E15" s="4"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -1156,10 +1471,10 @@
       <c r="E16" s="4">
         <v>20.43</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>45128</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="7"/>
@@ -1179,7 +1494,7 @@
         <v>20.09</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="7"/>
@@ -1199,32 +1514,34 @@
         <v>20.68</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>12653</v>
+        <v>12955</v>
       </c>
       <c r="B19" s="2">
-        <v>45113</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>15</v>
+        <v>45114</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="9">
+        <v>108.95</v>
+      </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="16" t="s">
-        <v>10</v>
+      <c r="G19" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>12977</v>
+        <v>12960</v>
       </c>
       <c r="B20" s="2">
         <v>45114</v>
@@ -1232,15 +1549,21 @@
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="3">
-        <v>20</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="7"/>
+        <v>18.3</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="7">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -1253,7 +1576,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>20</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="13" t="s">
         <v>7</v>
@@ -1262,149 +1587,151 @@
     </row>
     <row r="22" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>12955</v>
+        <v>12977</v>
       </c>
       <c r="B22" s="2">
         <v>45114</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>8</v>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="3">
-        <v>108.95</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="4"/>
       <c r="G22" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>12711</v>
+        <v>12988</v>
       </c>
       <c r="B23" s="2">
-        <v>45119</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>15</v>
+        <v>45117</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="3">
-        <v>20.64</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="13" t="s">
-        <v>7</v>
+        <v>11.32</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>13064</v>
+        <v>13036</v>
       </c>
       <c r="B24" s="2">
-        <v>45121</v>
+        <v>45120</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="3">
-        <v>8.25</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="17" t="s">
-        <v>13</v>
+      <c r="G24" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>13074</v>
+        <v>13064</v>
       </c>
       <c r="B25" s="2">
-        <v>45124</v>
+        <v>45121</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="3">
-        <v>4.22</v>
+        <v>8.25</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>13095</v>
-      </c>
-      <c r="B26" s="2">
-        <v>45125</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>0</v>
+        <v>13073</v>
+      </c>
+      <c r="B26" s="24">
+        <v>45128</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="9">
-        <v>32.24</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>13</v>
+      <c r="E26" s="30">
+        <v>9.69</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>13104</v>
+        <v>13074</v>
       </c>
       <c r="B27" s="2">
-        <v>45126</v>
+        <v>45124</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="9">
-        <v>6.41</v>
+        <v>4.22</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>13154</v>
+        <v>13095</v>
       </c>
       <c r="B28" s="2">
-        <v>45126</v>
+        <v>45125</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="3">
-        <v>6.52</v>
-      </c>
-      <c r="F28" s="4"/>
+        <v>32.24</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="G28" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>13111</v>
+        <v>13104</v>
       </c>
       <c r="B29" s="2">
         <v>45126</v>
@@ -1414,81 +1741,81 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="3">
-        <v>16.559999999999999</v>
+        <v>6.41</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>13131</v>
+        <v>13105</v>
       </c>
       <c r="B30" s="2">
         <v>45126</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>0</v>
+      <c r="C30" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="3">
-        <v>8.14</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="16" t="s">
-        <v>10</v>
+        <v>30.92</v>
+      </c>
+      <c r="F30" s="21">
+        <v>45133</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>13105</v>
+        <v>13111</v>
       </c>
       <c r="B31" s="2">
         <v>45126</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>15</v>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="3">
-        <v>30.92</v>
-      </c>
-      <c r="F31" s="23">
-        <v>45133</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>7</v>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>13128</v>
+        <v>13116</v>
       </c>
       <c r="B32" s="2">
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D32" s="4"/>
       <c r="E32" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F32" s="4"/>
+        <v>1.99</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="G32" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>13132</v>
+        <v>13127</v>
       </c>
       <c r="B33" s="2">
         <v>45127</v>
@@ -1498,17 +1825,17 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="3">
-        <v>3.13</v>
+        <v>4.18</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>13134</v>
+        <v>13128</v>
       </c>
       <c r="B34" s="2">
         <v>45127</v>
@@ -1516,43 +1843,41 @@
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4">
+        <v>38</v>
+      </c>
       <c r="E34" s="3">
-        <v>3.68</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>6</v>
+        <v>2.17</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>13116</v>
+        <v>13131</v>
       </c>
       <c r="B35" s="2">
-        <v>45127</v>
+        <v>45126</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="3">
-        <v>1.99</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>13</v>
+        <v>8.14</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>13380</v>
+        <v>13132</v>
       </c>
       <c r="B36" s="2">
         <v>45127</v>
@@ -1562,19 +1887,17 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="3">
-        <v>6.28</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>13</v>
+        <v>3.13</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>13127</v>
+        <v>13134</v>
       </c>
       <c r="B37" s="2">
         <v>45127</v>
@@ -1584,105 +1907,103 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="3">
-        <v>4.18</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="16" t="s">
-        <v>10</v>
+        <v>3.68</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>13177</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45127</v>
+        <v>13136</v>
+      </c>
+      <c r="B38" s="24">
+        <v>45128</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="16" t="s">
+        <v>4.18</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>13191</v>
-      </c>
-      <c r="B39" s="26">
+        <v>13137</v>
+      </c>
+      <c r="B39" s="24">
         <v>45128</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>15</v>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="3">
-        <v>28.8</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>7</v>
+        <v>2.06</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>13073</v>
-      </c>
-      <c r="B40" s="26">
+        <v>13141</v>
+      </c>
+      <c r="B40" s="24">
         <v>45128</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>15</v>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="27">
-        <v>9.69</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>10</v>
+      <c r="E40" s="3">
+        <v>3.78</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>13137</v>
-      </c>
-      <c r="B41" s="26">
+        <v>13148</v>
+      </c>
+      <c r="B41" s="24">
         <v>45128</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
+      <c r="C41" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="3">
-        <v>2.06</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="7"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="7">
+        <v>78</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>13150</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="24">
         <v>45128</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1700,29 +2021,29 @@
     </row>
     <row r="43" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>13164</v>
-      </c>
-      <c r="B43" s="26">
-        <v>45128</v>
+        <v>13154</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45126</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="3">
-        <v>6.12</v>
+        <v>6.52</v>
       </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>13136</v>
-      </c>
-      <c r="B44" s="26">
+        <v>13164</v>
+      </c>
+      <c r="B44" s="24">
         <v>45128</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1730,102 +2051,109 @@
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="3">
-        <v>4.18</v>
+        <v>6.12</v>
       </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>13141</v>
-      </c>
-      <c r="B45" s="26">
+        <v>13171</v>
+      </c>
+      <c r="B45" s="24">
         <v>45128</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
+      <c r="C45" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="3">
-        <v>3.78</v>
-      </c>
-      <c r="F45" s="4"/>
+        <v>7.38</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="G45" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H45" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>13148</v>
-      </c>
-      <c r="B46" s="26">
-        <v>45128</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>8</v>
+        <v>13177</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="7">
-        <v>78</v>
-      </c>
+      <c r="E46" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>13171</v>
-      </c>
-      <c r="B47" s="26">
+        <v>13191</v>
+      </c>
+      <c r="B47" s="24">
         <v>45128</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="3">
-        <v>7.38</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>24</v>
+        <v>28.8</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="7">
-        <v>78</v>
-      </c>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>12653</v>
-      </c>
-      <c r="B48" s="26">
-        <v>45128</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>15</v>
+        <v>13380</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>7</v>
+      <c r="E48" s="3">
+        <v>6.28</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="H48" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/arquivos/confecao.xlsx
+++ b/arquivos/confecao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\API-Arte-arena\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47F9F7C-8475-49A4-A465-81497AFA1FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233C49C4-6086-4833-AA80-422DD22BD70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>BANDEIRA</t>
   </si>
@@ -93,9 +93,6 @@
     <t>mandei a impr junto com o 13149 por ser impr peq</t>
   </si>
   <si>
-    <t>MOTOBOY - ok</t>
-  </si>
-  <si>
     <t>31/07/2023 ok</t>
   </si>
   <si>
@@ -133,6 +130,18 @@
   </si>
   <si>
     <t>material</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Soma Acumulada</t>
+  </si>
+  <si>
+    <t>Contagem</t>
   </si>
 </sst>
 </file>
@@ -453,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -510,9 +519,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -828,41 +834,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>12988</v>
       </c>
@@ -870,7 +876,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3">
@@ -884,7 +890,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>13036</v>
       </c>
@@ -904,7 +910,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>12960</v>
       </c>
@@ -930,7 +936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>12180</v>
       </c>
@@ -950,7 +956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>12856</v>
       </c>
@@ -968,7 +974,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>11672</v>
       </c>
@@ -986,7 +992,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>11501</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>11939</v>
       </c>
@@ -1026,7 +1032,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>12380</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>12068</v>
       </c>
@@ -1068,7 +1074,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>12597</v>
       </c>
@@ -1086,7 +1092,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12684</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12718</v>
       </c>
@@ -1124,7 +1130,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12744</v>
       </c>
@@ -1142,7 +1148,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12865</v>
       </c>
@@ -1164,7 +1170,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>12913</v>
       </c>
@@ -1184,7 +1190,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>12942</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="3">
@@ -1204,37 +1210,39 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>12653</v>
+        <v>12977</v>
       </c>
       <c r="B19" s="2">
-        <v>45113</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="16" t="s">
-        <v>10</v>
+        <v>45114</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>12977</v>
+        <v>12955</v>
       </c>
       <c r="B20" s="2">
         <v>45114</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>0</v>
+      <c r="C20" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="3">
-        <v>20</v>
+        <v>108.95</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="13" t="s">
@@ -1242,129 +1250,131 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>12977</v>
+        <v>12711</v>
       </c>
       <c r="B21" s="2">
-        <v>45114</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
+        <v>45119</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>20.64</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>12955</v>
+        <v>13064</v>
       </c>
       <c r="B22" s="2">
-        <v>45114</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>8</v>
+        <v>45121</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="3">
-        <v>108.95</v>
+        <v>8.25</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="13" t="s">
-        <v>7</v>
+      <c r="G22" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>12711</v>
+        <v>13074</v>
       </c>
       <c r="B23" s="2">
-        <v>45119</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>15</v>
+        <v>45124</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="3">
-        <v>20.64</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="13" t="s">
-        <v>7</v>
+        <v>4.22</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>13064</v>
+        <v>13095</v>
       </c>
       <c r="B24" s="2">
-        <v>45121</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3">
-        <v>8.25</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>45125</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9">
+        <v>32.24</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="G24" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>13074</v>
+        <v>13104</v>
       </c>
       <c r="B25" s="2">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3">
-        <v>4.22</v>
-      </c>
-      <c r="F25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9">
+        <v>6.41</v>
+      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>13095</v>
+        <v>13154</v>
       </c>
       <c r="B26" s="2">
-        <v>45125</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9">
-        <v>32.24</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>13</v>
+        <v>45126</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3">
+        <v>6.52</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>13104</v>
+        <v>13111</v>
       </c>
       <c r="B27" s="2">
         <v>45126</v>
@@ -1372,19 +1382,19 @@
       <c r="C27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9">
-        <v>6.41</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="17" t="s">
-        <v>13</v>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>13154</v>
+        <v>13131</v>
       </c>
       <c r="B28" s="2">
         <v>45126</v>
@@ -1394,7 +1404,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="3">
-        <v>6.52</v>
+        <v>8.14</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="16" t="s">
@@ -1402,39 +1412,43 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>13111</v>
+        <v>13105</v>
       </c>
       <c r="B29" s="2">
         <v>45126</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
+      <c r="C29" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="3">
-        <v>16.559999999999999</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="16" t="s">
-        <v>10</v>
+        <v>30.92</v>
+      </c>
+      <c r="F29" s="22">
+        <v>45133</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>13131</v>
+        <v>13128</v>
       </c>
       <c r="B30" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4">
+        <v>38</v>
+      </c>
       <c r="E30" s="3">
-        <v>8.14</v>
+        <v>2.17</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="16" t="s">
@@ -1442,31 +1456,29 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>13105</v>
+        <v>13132</v>
       </c>
       <c r="B31" s="2">
-        <v>45126</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>15</v>
+        <v>45127</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="3">
-        <v>30.92</v>
-      </c>
-      <c r="F31" s="23">
-        <v>45133</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>7</v>
+        <v>3.13</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>13128</v>
+        <v>13134</v>
       </c>
       <c r="B32" s="2">
         <v>45127</v>
@@ -1474,41 +1486,43 @@
       <c r="C32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="4">
-        <v>38</v>
-      </c>
+      <c r="D32" s="4"/>
       <c r="E32" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="16" t="s">
-        <v>10</v>
+        <v>3.68</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>13132</v>
+        <v>13116</v>
       </c>
       <c r="B33" s="2">
         <v>45127</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="3">
-        <v>3.13</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="16" t="s">
-        <v>10</v>
+        <v>1.99</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>13134</v>
+        <v>13380</v>
       </c>
       <c r="B34" s="2">
         <v>45127</v>
@@ -1518,41 +1532,39 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="3">
-        <v>3.68</v>
+        <v>6.28</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>13116</v>
+        <v>13127</v>
       </c>
       <c r="B35" s="2">
         <v>45127</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="3">
-        <v>1.99</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>13</v>
+        <v>4.18</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>13380</v>
+        <v>13177</v>
       </c>
       <c r="B36" s="2">
         <v>45127</v>
@@ -1562,107 +1574,103 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="3">
-        <v>6.28</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>13</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>13127</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45127</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>0</v>
+        <v>13073</v>
+      </c>
+      <c r="B37" s="25">
+        <v>45128</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="3">
-        <v>4.18</v>
-      </c>
-      <c r="F37" s="4"/>
+      <c r="E37" s="26">
+        <v>9.69</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G37" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>13177</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45127</v>
+        <v>13137</v>
+      </c>
+      <c r="B38" s="25">
+        <v>45128</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>2.06</v>
+      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>13191</v>
-      </c>
-      <c r="B39" s="26">
+        <v>13150</v>
+      </c>
+      <c r="B39" s="25">
         <v>45128</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>15</v>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="3">
-        <v>28.8</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>13073</v>
-      </c>
-      <c r="B40" s="26">
+        <v>13164</v>
+      </c>
+      <c r="B40" s="25">
         <v>45128</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>15</v>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="27">
-        <v>9.69</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="E40" s="3">
+        <v>6.12</v>
+      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>13137</v>
-      </c>
-      <c r="B41" s="26">
+        <v>13136</v>
+      </c>
+      <c r="B41" s="25">
         <v>45128</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1670,7 +1678,7 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="3">
-        <v>2.06</v>
+        <v>4.18</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="16" t="s">
@@ -1678,11 +1686,11 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>13150</v>
-      </c>
-      <c r="B42" s="26">
+        <v>13141</v>
+      </c>
+      <c r="B42" s="25">
         <v>45128</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1690,139 +1698,79 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="3">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="F42" s="7"/>
+        <v>3.78</v>
+      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>13164</v>
-      </c>
-      <c r="B43" s="26">
+        <v>13148</v>
+      </c>
+      <c r="B43" s="25">
         <v>45128</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
+      <c r="C43" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="3">
-        <v>6.12</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="3"/>
+      <c r="F43" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>13136</v>
-      </c>
-      <c r="B44" s="26">
+        <v>13171</v>
+      </c>
+      <c r="B44" s="25">
         <v>45128</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
+      <c r="C44" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="3">
-        <v>4.18</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7.38</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>13141</v>
-      </c>
-      <c r="B45" s="26">
+        <v>12653</v>
+      </c>
+      <c r="B45" s="25">
         <v>45128</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
+      <c r="C45" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="3">
-        <v>3.78</v>
-      </c>
-      <c r="F45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G45" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>13148</v>
-      </c>
-      <c r="B46" s="26">
-        <v>45128</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="7">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>13171</v>
-      </c>
-      <c r="B47" s="26">
-        <v>45128</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3">
-        <v>7.38</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="7">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>12653</v>
-      </c>
-      <c r="B48" s="26">
-        <v>45128</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
